--- a/Conocimiento/Metodología/Desviaciones horas.xlsx
+++ b/Conocimiento/Metodología/Desviaciones horas.xlsx
@@ -138,13 +138,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="3000"/>
-              <a:t>Estimation error per Member (For</a:t>
+              <a:t>Estimation error per Member</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" sz="3000" baseline="0"/>
-              <a:t> this week)</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES" sz="3000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -152,7 +147,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1415557780963165"/>
+          <c:x val="0.30087969053743596"/>
           <c:y val="1.6859344894026976E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -235,7 +230,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.304347826086957</c:v>
+                  <c:v>16.166666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,9 +262,8 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" sz="2000"/>
-                      <a:t>13</a:t>
+                      <a:t>28</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -307,7 +301,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.043478260869565</c:v>
+                  <c:v>28.40909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +333,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US" sz="2000"/>
-                      <a:t>15</a:t>
+                      <a:t>12</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -379,7 +373,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.384615384615385</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,6 +396,162 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.1739130434782608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andrés Fernández</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:t>7</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.608695652173914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jesús Sosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF66CC"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -451,168 +601,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>21.052631578947366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Andrés Fernández</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="2000"/>
-                      <a:t>20</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000"/>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20.238095238095237</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jesús Sosa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF66CC"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="2000"/>
-                      <a:t>13</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000"/>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
               <c:f>Hoja1!$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.043478260869565</c:v>
+                  <c:v>21.428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,7 +659,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,11 +675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196376064"/>
-        <c:axId val="203723264"/>
+        <c:axId val="200367104"/>
+        <c:axId val="198023360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196376064"/>
+        <c:axId val="200367104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203723264"/>
+        <c:crossAx val="198023360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203723264"/>
+        <c:axId val="198023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,15 +736,21 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196376064"/>
+        <c:crossAx val="200367104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,17 +1111,17 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>19.25</v>
+        <v>25.15</v>
       </c>
       <c r="D2">
         <f>(ABS(B2-C2)/B2)*100</f>
-        <v>16.304347826086957</v>
+        <v>16.166666666666671</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1129,17 +1129,17 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>15.75</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" si="0">(ABS(B3-C3)/B3)*100</f>
-        <v>13.043478260869565</v>
+        <v>28.40909090909091</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,17 +1147,17 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>15.384615384615385</v>
+        <v>12.5</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -1165,17 +1165,17 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>21.052631578947366</v>
+        <v>2.1739130434782608</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,17 +1183,17 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>16.75</v>
+        <v>24.75</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>20.238095238095237</v>
+        <v>7.608695652173914</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,17 +1201,17 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>13.043478260869565</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,17 +1219,17 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
